--- a/Exam_Subject_Score_Weight.xlsx
+++ b/Exam_Subject_Score_Weight.xlsx
@@ -17370,10 +17370,8 @@
       <c r="L624" t="n">
         <v>1</v>
       </c>
-      <c r="N624" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N624" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -17450,10 +17448,8 @@
       <c r="L627" t="n">
         <v>1</v>
       </c>
-      <c r="N627" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N627" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -17947,10 +17943,8 @@
       <c r="J647" t="n">
         <v>2</v>
       </c>
-      <c r="N647" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N647" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -18693,10 +18687,8 @@
       <c r="L677" t="n">
         <v>1</v>
       </c>
-      <c r="N677" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N677" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -28430,10 +28422,8 @@
       <c r="L1055" t="n">
         <v>1</v>
       </c>
-      <c r="N1055" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1055" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1056">
@@ -30253,10 +30243,8 @@
       <c r="L1126" t="n">
         <v>1</v>
       </c>
-      <c r="N1126" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -32357,10 +32345,8 @@
       <c r="E1206" t="n">
         <v>1</v>
       </c>
-      <c r="N1206" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -32383,10 +32369,8 @@
       <c r="L1207" t="n">
         <v>2</v>
       </c>
-      <c r="N1207" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -32433,10 +32417,8 @@
       <c r="L1209" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1209" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -32459,10 +32441,8 @@
       <c r="L1210" t="n">
         <v>2</v>
       </c>
-      <c r="N1210" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1211">
@@ -32509,10 +32489,8 @@
       <c r="M1212" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1212" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1213">
@@ -32559,10 +32537,8 @@
       <c r="M1214" t="n">
         <v>2</v>
       </c>
-      <c r="N1214" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -32663,10 +32639,8 @@
       <c r="L1218" t="n">
         <v>2</v>
       </c>
-      <c r="N1218" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1218" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1219">
@@ -32716,10 +32690,8 @@
       <c r="L1220" t="n">
         <v>2</v>
       </c>
-      <c r="N1220" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1220" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1221">
@@ -32742,10 +32714,8 @@
       <c r="L1221" t="n">
         <v>1.25</v>
       </c>
-      <c r="N1221" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1221" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -32765,10 +32735,8 @@
       <c r="L1222" t="n">
         <v>2</v>
       </c>
-      <c r="N1222" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -32788,10 +32756,8 @@
       <c r="M1223" t="n">
         <v>2</v>
       </c>
-      <c r="N1223" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1224">
@@ -32811,10 +32777,8 @@
       <c r="K1224" t="n">
         <v>2</v>
       </c>
-      <c r="N1224" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -32909,10 +32873,8 @@
       <c r="J1228" t="n">
         <v>2</v>
       </c>
-      <c r="N1228" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1229">
@@ -32935,10 +32897,8 @@
       <c r="K1229" t="n">
         <v>2</v>
       </c>
-      <c r="N1229" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1229" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1230">
@@ -32961,10 +32921,8 @@
       <c r="K1230" t="n">
         <v>2</v>
       </c>
-      <c r="N1230" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1231">
@@ -32987,10 +32945,8 @@
       <c r="L1231" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1231" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1232">
@@ -33013,10 +32969,8 @@
       <c r="K1232" t="n">
         <v>2</v>
       </c>
-      <c r="N1232" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1232" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -33496,10 +33450,8 @@
       <c r="M1252" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1252" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1252" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -33549,10 +33501,8 @@
       <c r="M1254" t="n">
         <v>2</v>
       </c>
-      <c r="N1254" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1255">
@@ -33575,10 +33525,8 @@
       <c r="K1255" t="n">
         <v>2</v>
       </c>
-      <c r="N1255" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1255" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -33913,10 +33861,8 @@
       <c r="L1269" t="n">
         <v>1</v>
       </c>
-      <c r="N1269" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -34476,10 +34422,8 @@
       <c r="L1293" t="n">
         <v>2</v>
       </c>
-      <c r="N1293" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1293" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -34499,10 +34443,8 @@
       <c r="H1294" t="n">
         <v>2</v>
       </c>
-      <c r="N1294" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1294" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -34546,10 +34488,8 @@
       <c r="L1296" t="n">
         <v>1</v>
       </c>
-      <c r="N1296" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1296" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -34598,10 +34538,8 @@
       <c r="K1298" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1298" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1298" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1299">
@@ -35623,10 +35561,8 @@
       <c r="M1340" t="n">
         <v>1</v>
       </c>
-      <c r="N1340" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1340" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1341">
@@ -37754,10 +37690,8 @@
       <c r="L1428" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1428" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1428" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -37781,10 +37715,8 @@
       <c r="M1429" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1429" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1429" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -37808,10 +37740,8 @@
       <c r="K1430" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1430" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1430" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -37859,10 +37789,8 @@
       <c r="M1432" t="n">
         <v>1</v>
       </c>
-      <c r="N1432" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1432" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1433">
@@ -37909,10 +37837,8 @@
       <c r="M1434" t="n">
         <v>1</v>
       </c>
-      <c r="N1434" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1434" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1435">
@@ -38120,10 +38046,8 @@
       <c r="M1443" t="n">
         <v>1</v>
       </c>
-      <c r="N1443" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1443" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1444">
@@ -38917,10 +38841,8 @@
       <c r="L1475" t="n">
         <v>1</v>
       </c>
-      <c r="N1475" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1475" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1476">
@@ -38967,10 +38889,8 @@
       <c r="M1477" t="n">
         <v>1</v>
       </c>
-      <c r="N1477" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1477" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -38993,10 +38913,8 @@
       <c r="M1478" t="n">
         <v>2</v>
       </c>
-      <c r="N1478" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1478" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -39115,10 +39033,8 @@
       <c r="L1483" t="n">
         <v>1</v>
       </c>
-      <c r="N1483" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1483" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1484">
@@ -40370,10 +40286,8 @@
       <c r="M1533" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1533" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1533" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1534">
@@ -41017,10 +40931,8 @@
       <c r="L1560" t="n">
         <v>2</v>
       </c>
-      <c r="N1560" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1560" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1561">
@@ -41043,10 +40955,8 @@
       <c r="L1561" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1561" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1561" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1562">
@@ -41093,10 +41003,8 @@
       <c r="L1563" t="n">
         <v>2</v>
       </c>
-      <c r="N1563" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1563" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1564">
@@ -41119,10 +41027,8 @@
       <c r="L1564" t="n">
         <v>2</v>
       </c>
-      <c r="N1564" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1564" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1565">
@@ -41145,10 +41051,8 @@
       <c r="L1565" t="n">
         <v>1</v>
       </c>
-      <c r="N1565" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1565" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1566">
@@ -41171,10 +41075,8 @@
       <c r="M1566" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1566" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1566" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1567">
@@ -41239,10 +41141,8 @@
       <c r="L1569" t="n">
         <v>2</v>
       </c>
-      <c r="N1569" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1569" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1570">
@@ -41319,10 +41219,8 @@
       <c r="L1572" t="n">
         <v>2</v>
       </c>
-      <c r="N1572" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1572" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1573">
@@ -41363,10 +41261,8 @@
       <c r="M1574" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1574" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1574" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1575">
@@ -41386,10 +41282,8 @@
       <c r="L1575" t="n">
         <v>2</v>
       </c>
-      <c r="N1575" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1575" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1576">
@@ -41436,10 +41330,8 @@
       <c r="L1577" t="n">
         <v>2</v>
       </c>
-      <c r="N1577" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1577" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1578">
@@ -41459,10 +41351,8 @@
       <c r="K1578" t="n">
         <v>2</v>
       </c>
-      <c r="N1578" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1578" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1579">
@@ -41506,10 +41396,8 @@
       <c r="L1580" t="n">
         <v>1.5</v>
       </c>
-      <c r="N1580" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1580" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1581">
@@ -41577,10 +41465,8 @@
       <c r="L1583" t="n">
         <v>2</v>
       </c>
-      <c r="N1583" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1583" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1584">
@@ -41603,10 +41489,8 @@
       <c r="L1584" t="n">
         <v>1.25</v>
       </c>
-      <c r="N1584" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1584" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -41653,10 +41537,8 @@
       <c r="L1586" t="n">
         <v>1</v>
       </c>
-      <c r="N1586" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1586" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1587">
@@ -41679,10 +41561,8 @@
       <c r="L1587" t="n">
         <v>1</v>
       </c>
-      <c r="N1587" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1587" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1588">
@@ -41705,10 +41585,8 @@
       <c r="M1588" t="n">
         <v>1</v>
       </c>
-      <c r="N1588" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1588" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1589">
@@ -41758,10 +41636,8 @@
       <c r="M1590" t="n">
         <v>1</v>
       </c>
-      <c r="N1590" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1590" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1591">
@@ -41781,10 +41657,8 @@
       <c r="K1591" t="n">
         <v>1</v>
       </c>
-      <c r="N1591" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1591" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1592">
@@ -41804,10 +41678,8 @@
       <c r="L1592" t="n">
         <v>1</v>
       </c>
-      <c r="N1592" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1592" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1593">
@@ -44527,10 +44399,8 @@
       <c r="M1694" t="n">
         <v>1</v>
       </c>
-      <c r="N1694" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1694" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1695">
@@ -44553,10 +44423,8 @@
       <c r="M1695" t="n">
         <v>1</v>
       </c>
-      <c r="N1695" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1695" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1696">
@@ -44579,10 +44447,8 @@
       <c r="M1696" t="n">
         <v>1</v>
       </c>
-      <c r="N1696" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1696" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1697">
@@ -45166,10 +45032,8 @@
       <c r="L1718" t="n">
         <v>2</v>
       </c>
-      <c r="N1718" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1718" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1719">
@@ -45192,10 +45056,8 @@
       <c r="L1719" t="n">
         <v>2</v>
       </c>
-      <c r="N1719" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1719" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1720">
@@ -45218,10 +45080,8 @@
       <c r="L1720" t="n">
         <v>2</v>
       </c>
-      <c r="N1720" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1720" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1721">
@@ -45265,10 +45125,8 @@
       <c r="L1722" t="n">
         <v>2</v>
       </c>
-      <c r="N1722" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1722" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1723">
@@ -45315,10 +45173,8 @@
       <c r="M1724" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1724" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1724" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1725">
@@ -45410,10 +45266,8 @@
       <c r="L1728" t="n">
         <v>2</v>
       </c>
-      <c r="N1728" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1728" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1729">
@@ -45433,10 +45287,8 @@
       <c r="M1729" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1729" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1729" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -45478,10 +45330,8 @@
       <c r="L1731" t="n">
         <v>2</v>
       </c>
-      <c r="N1731" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1731" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1732">
@@ -45501,10 +45351,8 @@
       <c r="M1732" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1732" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1732" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -45524,10 +45372,8 @@
       <c r="M1733" t="n">
         <v>2</v>
       </c>
-      <c r="N1733" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1733" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1734">
@@ -45571,10 +45417,8 @@
       <c r="K1735" t="n">
         <v>1.75</v>
       </c>
-      <c r="N1735" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
+      <c r="N1735" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1736">
